--- a/materials/joint_index.xlsx
+++ b/materials/joint_index.xlsx
@@ -125,11 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the first column: annotation index for corresponding joint in mpi_inf_3dhp dataset (0-27, which in MATLAB are 1-28)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>correction: parent index here in original implementation is 1 (neck), which seems wrong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the first column: annotation indexes for corresponding joints in mpi_inf_3dhp dataset (0-27, which in MATLAB are 1-28)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,11 +586,11 @@
         <v>16</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>VLOOKUP(D2,B$2:C$22,2)</f>
+        <f t="shared" ref="E2:E22" si="0">VLOOKUP(D2,B$2:C$22,2)</f>
         <v>head</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>VLOOKUP(D3,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>spine</v>
       </c>
     </row>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>VLOOKUP(D4,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>neck</v>
       </c>
     </row>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>VLOOKUP(D5,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_shoulder</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>VLOOKUP(D6,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_elbow</v>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>VLOOKUP(D7,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>neck</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>VLOOKUP(D8,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_shoulder</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>VLOOKUP(D9,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_elbow</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>VLOOKUP(D10,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>pelvis</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>VLOOKUP(D11,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_hip</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>VLOOKUP(D12,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_knee</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>VLOOKUP(D13,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>pelvis</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>VLOOKUP(D14,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_hip</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>VLOOKUP(D15,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_knee</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>VLOOKUP(D16,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>pelvis</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>VLOOKUP(D17,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>pelvis</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>VLOOKUP(D18,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>neck</v>
       </c>
     </row>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>VLOOKUP(D19,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_wrist</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>VLOOKUP(D20,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_wrist</v>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>VLOOKUP(D21,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_ankle</v>
       </c>
     </row>
@@ -949,13 +949,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>VLOOKUP(D22,B$2:C$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_ankle</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/materials/joint_index.xlsx
+++ b/materials/joint_index.xlsx
@@ -125,11 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>correction: parent index here in original implementation is 1 (neck), which seems wrong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>the first column: annotation indexes for corresponding joints in mpi_inf_3dhp dataset (0-27, which in MATLAB are 1-28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modification: parent index here in original implementation is 1 (neck)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,7 +590,7 @@
         <v>head</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
